--- a/memory usage as matrix.xlsx
+++ b/memory usage as matrix.xlsx
@@ -664,11 +664,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="277976896"/>
-        <c:axId val="277974544"/>
+        <c:axId val="219227584"/>
+        <c:axId val="219227968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277976896"/>
+        <c:axId val="219227584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277974544"/>
+        <c:crossAx val="219227968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -719,7 +719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277974544"/>
+        <c:axId val="219227968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277976896"/>
+        <c:crossAx val="219227584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,6 +949,300 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -978,12 +1272,11 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -1067,12 +1360,11 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1087,7 +1379,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2297,8 +2589,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2612,7 +2904,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+      <selection activeCell="A9" sqref="A9:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
